--- a/biology/Zoologie/Ceriomura_intaca/Ceriomura_intaca.xlsx
+++ b/biology/Zoologie/Ceriomura_intaca/Ceriomura_intaca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceriomura intaca est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceriomura intaca est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Misiones en Argentine[1],[2]. Elle se rencontre sur le Cerro Azul.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Misiones en Argentine,. Elle se rencontre sur le Cerro Azul.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 2,05 mm de long sur 1,64 mm et l'abdomen 2,78 mm de long et la carapace de la femelle paratype mesure 2,59 mm de long sur 1,98 mm et l'abdomen 3,70 mm de long[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 2,05 mm de long sur 1,64 mm et l'abdomen 2,78 mm de long et la carapace de la femelle paratype mesure 2,59 mm de long sur 1,98 mm et l'abdomen 3,70 mm de long.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Rubio, Baigorria et Stolar en 2023.
 </t>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, l'Instituto Nacional de Tecnología Agropecuaria (INTA), Cerro Azul (CA).
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Rubio, Baigorria &amp; Stolar, 2023 : « Unveiling some unknown jumping spiders (Araneae: Salticidae) from Argentina: descriptions of seven new species. » Peckhamia, vol. 294.1, p. 1-22.</t>
         </is>
